--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>739655.4603321553</v>
+        <v>735488.9273305273</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33932413.92211567</v>
+        <v>33932413.92211566</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6528279.443747057</v>
+        <v>6528279.443747058</v>
       </c>
     </row>
     <row r="9">
@@ -1223,61 +1223,61 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G9" t="n">
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="W9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T9" t="n">
-        <v>36.39025468426208</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>17.8422975499833</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
     </row>
     <row r="11">
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>230.8180530063176</v>
+        <v>9.103736033354537</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.6827570557764</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1539,13 +1539,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>122.1224355153807</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>161.8579339601071</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>230.813376026042</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>73.77894699955851</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>111.8760931075859</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>167.2782174491593</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>13.71126513569078</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2010,16 +2010,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>127.6559554393265</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811444</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>243.9976759120906</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2067,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2086,16 +2086,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>170.830804518428</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>149.6157531058518</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.64499605673879</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2247,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777209</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2329,10 +2329,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>77.97735851143239</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T23" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>362.0791609856827</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>118.4264781088581</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>105.2096846153949</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H25" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U25" t="n">
         <v>275.6010546203353</v>
@@ -2560,16 +2560,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>249.4710932475244</v>
       </c>
       <c r="V26" t="n">
-        <v>252.0154224926455</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2721,10 +2721,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>109.6796745649263</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.5758518932807</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.6907226285777</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>283.5628413251538</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>27.8302978577646</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>134.8550812659119</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>85.21166864812811</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>307.7414096139067</v>
       </c>
       <c r="X32" t="n">
-        <v>132.1968878168767</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>139.0532731843783</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>128.5726071180862</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I34" t="n">
         <v>61.52099607453886</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>417.1469675106583</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>252.3949931841877</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>256.4743901009363</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.6907226285777</v>
+        <v>210.3265910239958</v>
       </c>
       <c r="U37" t="n">
         <v>275.6010546203353</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>71.1381005497545</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3508,16 +3508,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>311.7138629972819</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>25.63771763455641</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.5758518932798</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>3.14024692769416</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.6907226285777</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>290.0862608160468</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>215.3269856084887</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>19.25750879101767</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>39.84747769957746</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H43" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U43" t="n">
         <v>275.6010546203353</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>223.1158174638626</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3988,13 +3988,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H44" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>38.46815833415827</v>
       </c>
       <c r="T44" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>163.2601666030723</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.6907226285777</v>
@@ -4194,16 +4194,16 @@
         <v>275.6010546203353</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>131.7537906494083</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>173.3155437345033</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
         <v>3.305200243802188</v>
@@ -4880,55 +4880,55 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>31.77020107089877</v>
+        <v>5.706527910441171</v>
       </c>
       <c r="J9" t="n">
-        <v>59.89648401348967</v>
+        <v>12.29595456866669</v>
       </c>
       <c r="K9" t="n">
-        <v>71.1588637208333</v>
+        <v>23.55833427601031</v>
       </c>
       <c r="L9" t="n">
-        <v>86.30252310133811</v>
+        <v>38.70199365651513</v>
       </c>
       <c r="M9" t="n">
-        <v>103.9744593181195</v>
+        <v>56.37392987329654</v>
       </c>
       <c r="N9" t="n">
-        <v>122.1141191020718</v>
+        <v>74.51358965724877</v>
       </c>
       <c r="O9" t="n">
-        <v>138.7083639341947</v>
+        <v>91.1078344893717</v>
       </c>
       <c r="P9" t="n">
-        <v>152.0267083864403</v>
+        <v>115.4551986112916</v>
       </c>
       <c r="Q9" t="n">
-        <v>160.929668948206</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="T9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="U9" t="n">
         <v>123.5276858794757</v>
       </c>
-      <c r="T9" t="n">
-        <v>86.76985286506957</v>
-      </c>
-      <c r="U9" t="n">
-        <v>86.76985286506957</v>
-      </c>
       <c r="V9" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>86.76985286506957</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="X9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>146.5247019534642</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C10" t="n">
-        <v>146.5247019534642</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D10" t="n">
-        <v>146.5247019534642</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>104.7923756428305</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
         <v>3.305200243802188</v>
@@ -4971,16 +4971,16 @@
         <v>59.69371861623731</v>
       </c>
       <c r="M10" t="n">
-        <v>100.5955716332894</v>
+        <v>68.85952388578045</v>
       </c>
       <c r="N10" t="n">
-        <v>141.4974246503414</v>
+        <v>77.80738679259596</v>
       </c>
       <c r="O10" t="n">
-        <v>153.2917870759318</v>
+        <v>86.07218644061874</v>
       </c>
       <c r="P10" t="n">
-        <v>160.3637509630746</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4998,16 +4998,16 @@
         <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>146.5247019534642</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="W10" t="n">
-        <v>146.5247019534642</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="X10" t="n">
-        <v>146.5247019534642</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="Y10" t="n">
-        <v>146.5247019534642</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1107.7262209515</v>
+        <v>918.0444189444362</v>
       </c>
       <c r="C11" t="n">
-        <v>1107.7262209515</v>
+        <v>918.0444189444362</v>
       </c>
       <c r="D11" t="n">
-        <v>1107.7262209515</v>
+        <v>918.0444189444362</v>
       </c>
       <c r="E11" t="n">
-        <v>1107.7262209515</v>
+        <v>484.2696741027314</v>
       </c>
       <c r="F11" t="n">
-        <v>679.8587913607075</v>
+        <v>56.4022445119391</v>
       </c>
       <c r="G11" t="n">
-        <v>280.3561000401847</v>
+        <v>56.4022445119391</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.406501800135</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435803</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867018</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.556325916848</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>1889.485634438362</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>1526.868684372189</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W11" t="n">
-        <v>1526.868684372189</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X11" t="n">
-        <v>1107.7262209515</v>
+        <v>1326.330542644783</v>
       </c>
       <c r="Y11" t="n">
-        <v>1107.7262209515</v>
+        <v>918.0444189444362</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.196554659879</v>
+        <v>843.5014354710329</v>
       </c>
       <c r="C13" t="n">
-        <v>856.6348431431041</v>
+        <v>670.9397239542578</v>
       </c>
       <c r="D13" t="n">
-        <v>690.7568503446269</v>
+        <v>505.0617311557805</v>
       </c>
       <c r="E13" t="n">
-        <v>520.9988465953642</v>
+        <v>335.3037274065178</v>
       </c>
       <c r="F13" t="n">
-        <v>344.2917925571204</v>
+        <v>335.3037274065178</v>
       </c>
       <c r="G13" t="n">
-        <v>179.5506121696388</v>
+        <v>170.5625470190362</v>
       </c>
       <c r="H13" t="n">
         <v>47.20655154895472</v>
@@ -5208,10 +5208,10 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1236.93553127931</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1364.434443083199</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V13" t="n">
-        <v>1686.698306725808</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W13" t="n">
-        <v>1414.6719023121</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X13" t="n">
-        <v>1169.280147645512</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y13" t="n">
-        <v>1169.280147645512</v>
+        <v>1035.32005419002</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1580.208008741915</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C14" t="n">
-        <v>1580.208008741915</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D14" t="n">
-        <v>1144.298223916359</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.406501800135</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435803</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916848</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U14" t="n">
-        <v>1985.063463330882</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V14" t="n">
-        <v>1985.063463330882</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W14" t="n">
-        <v>1580.208008741915</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="X14" t="n">
-        <v>1580.208008741915</v>
+        <v>1578.568163960873</v>
       </c>
       <c r="Y14" t="n">
-        <v>1580.208008741915</v>
+        <v>1345.423339692144</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5354,25 +5354,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>864.4553742723976</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C16" t="n">
-        <v>691.8936627556226</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D16" t="n">
-        <v>526.0156699571453</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E16" t="n">
-        <v>356.2576662078826</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>179.5506121696388</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
         <v>179.5506121696388</v>
@@ -5436,25 +5436,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>828.1746199579899</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180194</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2285.803388559293</v>
       </c>
       <c r="U16" t="n">
-        <v>1973.653814855378</v>
+        <v>2007.416756608036</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.698306725808</v>
+        <v>1720.461248478467</v>
       </c>
       <c r="W16" t="n">
-        <v>1414.6719023121</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.280147645512</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.273992991385</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>499.1987871288554</v>
+        <v>1319.173435580564</v>
       </c>
       <c r="C17" t="n">
-        <v>61.05631431227874</v>
+        <v>1319.173435580564</v>
       </c>
       <c r="D17" t="n">
-        <v>61.05631431227874</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E17" t="n">
-        <v>61.05631431227874</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>61.05631431227874</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>61.05631431227874</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895472</v>
@@ -5515,10 +5515,10 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
         <v>805.440802286702</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.25688596925</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V17" t="n">
-        <v>1738.639935903077</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W17" t="n">
-        <v>1333.78448131411</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X17" t="n">
-        <v>1333.78448131411</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="Y17" t="n">
-        <v>925.4983576137632</v>
+        <v>1745.473006065472</v>
       </c>
     </row>
     <row r="18">
@@ -5594,10 +5594,10 @@
         <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1088.89319013762</v>
+        <v>745.8267834361247</v>
       </c>
       <c r="C19" t="n">
-        <v>916.3314786208454</v>
+        <v>573.2650719193497</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4534858223681</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="E19" t="n">
-        <v>580.6954820731053</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F19" t="n">
-        <v>403.9884280348615</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G19" t="n">
-        <v>239.2472476473799</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
         <v>110.3018381127067</v>
@@ -5679,19 +5679,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>326.7831174369939</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M19" t="n">
-        <v>910.9641928553085</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N19" t="n">
-        <v>1480.721907816843</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
-        <v>2018.157038390386</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P19" t="n">
-        <v>2118.926094568069</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1969.438740050869</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1682.4832319213</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1410.456827507591</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.711808856608</v>
+        <v>1165.065072841004</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.711808856608</v>
+        <v>937.6454021551119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1485.275513477279</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>1047.133040660702</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>1047.133040660702</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895472</v>
@@ -5749,16 +5749,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001352</v>
+        <v>118.406501800135</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435803</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U20" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V20" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W20" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X20" t="n">
-        <v>2319.861207662533</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y20" t="n">
-        <v>1911.575083962186</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5828,16 +5828,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
         <v>803.387703298788</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>625.4485964662028</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C22" t="n">
-        <v>452.8868849494278</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D22" t="n">
-        <v>287.0088921509505</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E22" t="n">
-        <v>287.0088921509505</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895472</v>
@@ -5916,16 +5916,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1272.302332591134</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N22" t="n">
-        <v>1842.060047552668</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498297</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P22" t="n">
         <v>2105.896438675981</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774551</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X22" t="n">
-        <v>890.893515694255</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083632</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>997.4159203956636</v>
+        <v>1784.660814205626</v>
       </c>
       <c r="C23" t="n">
-        <v>997.4159203956636</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="D23" t="n">
-        <v>561.5061355701082</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E23" t="n">
-        <v>127.7313907284034</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F23" t="n">
-        <v>127.7313907284034</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G23" t="n">
         <v>48.96638213099692</v>
@@ -5986,16 +5986,16 @@
         <v>48.96638213099692</v>
       </c>
       <c r="I23" t="n">
-        <v>122.835378888263</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J23" t="n">
-        <v>286.3580891786141</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K23" t="n">
-        <v>531.4362430141197</v>
+        <v>531.4362430141192</v>
       </c>
       <c r="L23" t="n">
-        <v>835.4773641398455</v>
+        <v>835.4773641398451</v>
       </c>
       <c r="M23" t="n">
         <v>1173.781693844502</v>
@@ -6004,10 +6004,10 @@
         <v>1517.560141290067</v>
       </c>
       <c r="O23" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P23" t="n">
-        <v>2119.2362448742</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q23" t="n">
         <v>2327.293660516458</v>
@@ -6016,25 +6016,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S23" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T23" t="n">
-        <v>2236.857069169885</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U23" t="n">
-        <v>2236.857069169885</v>
+        <v>2150.397340453791</v>
       </c>
       <c r="V23" t="n">
-        <v>2236.857069169885</v>
+        <v>2150.397340453791</v>
       </c>
       <c r="W23" t="n">
-        <v>1832.001614580918</v>
+        <v>1784.660814205626</v>
       </c>
       <c r="X23" t="n">
-        <v>1832.001614580918</v>
+        <v>1784.660814205626</v>
       </c>
       <c r="Y23" t="n">
-        <v>1423.715490880571</v>
+        <v>1784.660814205626</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>181.8514775085927</v>
       </c>
       <c r="K24" t="n">
-        <v>286.3180520184858</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L24" t="n">
-        <v>510.1442793216697</v>
+        <v>572.1378646061676</v>
       </c>
       <c r="M24" t="n">
-        <v>771.3389293833792</v>
+        <v>833.332514667877</v>
       </c>
       <c r="N24" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O24" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P24" t="n">
-        <v>1481.560504773609</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q24" t="n">
-        <v>1613.147991278647</v>
+        <v>1675.141576563145</v>
       </c>
       <c r="R24" t="n">
         <v>1677.151305564151</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.4478978281106</v>
+        <v>704.2104052392299</v>
       </c>
       <c r="C25" t="n">
-        <v>629.8861863113356</v>
+        <v>584.5877000787672</v>
       </c>
       <c r="D25" t="n">
-        <v>464.0081935128583</v>
+        <v>584.5877000787672</v>
       </c>
       <c r="E25" t="n">
-        <v>357.7357848104392</v>
+        <v>584.5877000787672</v>
       </c>
       <c r="F25" t="n">
-        <v>181.0287307721954</v>
+        <v>407.8806460405234</v>
       </c>
       <c r="G25" t="n">
-        <v>181.0287307721954</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="H25" t="n">
-        <v>48.96638213099692</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="I25" t="n">
         <v>48.96638213099692</v>
       </c>
       <c r="J25" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K25" t="n">
-        <v>571.8138742903014</v>
+        <v>245.58759774283</v>
       </c>
       <c r="L25" t="n">
-        <v>888.4965680707649</v>
+        <v>374.0754096576803</v>
       </c>
       <c r="M25" t="n">
-        <v>1483.45281759531</v>
+        <v>969.0316591822257</v>
       </c>
       <c r="N25" t="n">
-        <v>1615.703969482474</v>
+        <v>1543.541614227034</v>
       </c>
       <c r="O25" t="n">
-        <v>1737.859313719486</v>
+        <v>2085.366207689827</v>
       </c>
       <c r="P25" t="n">
         <v>2189.891207672411</v>
@@ -6174,25 +6174,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S25" t="n">
-        <v>2304.444758099759</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T25" t="n">
-        <v>2304.444758099759</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U25" t="n">
-        <v>2026.059854442855</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V25" t="n">
-        <v>1739.104346313286</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W25" t="n">
-        <v>1467.077941899577</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X25" t="n">
-        <v>1221.68618723299</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y25" t="n">
-        <v>994.2665165470978</v>
+        <v>896.0290239582171</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1320.315653953679</v>
+        <v>1350.886069363921</v>
       </c>
       <c r="C26" t="n">
-        <v>882.1731811371019</v>
+        <v>912.7435965473446</v>
       </c>
       <c r="D26" t="n">
-        <v>882.1731811371019</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="E26" t="n">
-        <v>448.3984362953971</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F26" t="n">
-        <v>448.3984362953971</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G26" t="n">
         <v>48.96638213099692</v>
@@ -6226,13 +6226,13 @@
         <v>122.8353788882626</v>
       </c>
       <c r="J26" t="n">
-        <v>286.3580891786135</v>
+        <v>286.3580891786137</v>
       </c>
       <c r="K26" t="n">
-        <v>531.4362430141191</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L26" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398455</v>
       </c>
       <c r="M26" t="n">
         <v>1173.781693844502</v>
@@ -6241,10 +6241,10 @@
         <v>1517.560141290067</v>
       </c>
       <c r="O26" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P26" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q26" t="n">
         <v>2327.293660516458</v>
@@ -6253,25 +6253,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S26" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T26" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="U26" t="n">
-        <v>2409.462380959787</v>
+        <v>2196.328103269518</v>
       </c>
       <c r="V26" t="n">
-        <v>2154.901348138933</v>
+        <v>2196.328103269518</v>
       </c>
       <c r="W26" t="n">
-        <v>2154.901348138933</v>
+        <v>2196.328103269518</v>
       </c>
       <c r="X26" t="n">
-        <v>2154.901348138933</v>
+        <v>1777.185639848829</v>
       </c>
       <c r="Y26" t="n">
-        <v>1746.615224438586</v>
+        <v>1777.185639848829</v>
       </c>
     </row>
     <row r="27">
@@ -6308,10 +6308,10 @@
         <v>181.8514775085927</v>
       </c>
       <c r="K27" t="n">
-        <v>286.3180520184857</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L27" t="n">
-        <v>510.1442793216697</v>
+        <v>572.1378646061676</v>
       </c>
       <c r="M27" t="n">
         <v>771.3389293833792</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.3360567891434</v>
+        <v>704.2104052392299</v>
       </c>
       <c r="C28" t="n">
-        <v>387.7743452723684</v>
+        <v>531.6486937224548</v>
       </c>
       <c r="D28" t="n">
-        <v>221.896352473891</v>
+        <v>365.7707009239775</v>
       </c>
       <c r="E28" t="n">
-        <v>111.1088024083089</v>
+        <v>196.0126971747148</v>
       </c>
       <c r="F28" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G28" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H28" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I28" t="n">
         <v>48.96638213099692</v>
@@ -6387,19 +6387,19 @@
         <v>110.0676242284526</v>
       </c>
       <c r="K28" t="n">
-        <v>485.2341891256116</v>
+        <v>245.58759774283</v>
       </c>
       <c r="L28" t="n">
-        <v>1031.931882808423</v>
+        <v>374.0754096576803</v>
       </c>
       <c r="M28" t="n">
-        <v>1167.404265152055</v>
+        <v>969.0316591822257</v>
       </c>
       <c r="N28" t="n">
-        <v>1299.655417039219</v>
+        <v>1543.541614227034</v>
       </c>
       <c r="O28" t="n">
-        <v>1737.859313719486</v>
+        <v>2085.366207689827</v>
       </c>
       <c r="P28" t="n">
         <v>2189.891207672411</v>
@@ -6411,25 +6411,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S28" t="n">
-        <v>2304.444758099759</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T28" t="n">
-        <v>2062.332917060792</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U28" t="n">
-        <v>1783.948013403888</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V28" t="n">
-        <v>1496.992505274318</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W28" t="n">
-        <v>1224.96610086061</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X28" t="n">
-        <v>979.5743461940224</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y28" t="n">
-        <v>752.1546755081306</v>
+        <v>896.0290239582171</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1201.403396988016</v>
+        <v>745.507986953886</v>
       </c>
       <c r="C29" t="n">
-        <v>763.2609241714395</v>
+        <v>745.507986953886</v>
       </c>
       <c r="D29" t="n">
-        <v>763.2609241714395</v>
+        <v>745.507986953886</v>
       </c>
       <c r="E29" t="n">
-        <v>476.8338117217892</v>
+        <v>745.507986953886</v>
       </c>
       <c r="F29" t="n">
-        <v>48.96638213099691</v>
+        <v>717.396574976346</v>
       </c>
       <c r="G29" t="n">
-        <v>48.96638213099691</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="H29" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I29" t="n">
         <v>122.8353788882626</v>
       </c>
       <c r="J29" t="n">
-        <v>286.3580891786137</v>
+        <v>286.358089178614</v>
       </c>
       <c r="K29" t="n">
-        <v>531.4362430141193</v>
+        <v>531.4362430141197</v>
       </c>
       <c r="L29" t="n">
-        <v>835.4773641398451</v>
+        <v>835.4773641398455</v>
       </c>
       <c r="M29" t="n">
         <v>1173.781693844502</v>
@@ -6478,37 +6478,37 @@
         <v>1517.560141290067</v>
       </c>
       <c r="O29" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P29" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q29" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R29" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S29" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T29" t="n">
-        <v>2409.462380959787</v>
+        <v>2236.857069169885</v>
       </c>
       <c r="U29" t="n">
-        <v>2409.462380959787</v>
+        <v>1977.792028663888</v>
       </c>
       <c r="V29" t="n">
-        <v>2046.845430893613</v>
+        <v>1977.792028663888</v>
       </c>
       <c r="W29" t="n">
-        <v>2046.845430893613</v>
+        <v>1572.936574074922</v>
       </c>
       <c r="X29" t="n">
-        <v>1627.702967472924</v>
+        <v>1153.794110654233</v>
       </c>
       <c r="Y29" t="n">
-        <v>1627.702967472924</v>
+        <v>745.507986953886</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>80.54401965804902</v>
       </c>
       <c r="H30" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I30" t="n">
-        <v>84.45847150237341</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J30" t="n">
         <v>119.8578922240949</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>704.2104052392294</v>
+        <v>704.2104052392299</v>
       </c>
       <c r="C31" t="n">
-        <v>531.6486937224544</v>
+        <v>531.6486937224548</v>
       </c>
       <c r="D31" t="n">
-        <v>531.6486937224544</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E31" t="n">
-        <v>361.8906899731916</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F31" t="n">
-        <v>361.8906899731916</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G31" t="n">
-        <v>197.1811949821757</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H31" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I31" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J31" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K31" t="n">
-        <v>381.6134923430844</v>
+        <v>381.6134923430849</v>
       </c>
       <c r="L31" t="n">
-        <v>928.3111860258958</v>
+        <v>928.3111860258963</v>
       </c>
       <c r="M31" t="n">
-        <v>1063.783568369528</v>
+        <v>1063.783568369529</v>
       </c>
       <c r="N31" t="n">
         <v>1196.034720256692</v>
       </c>
       <c r="O31" t="n">
-        <v>1737.859313719485</v>
+        <v>1737.859313719486</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.89120767241</v>
+        <v>2189.891207672411</v>
       </c>
       <c r="Q31" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R31" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S31" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T31" t="n">
-        <v>2206.207265510878</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U31" t="n">
         <v>1927.822361853974</v>
       </c>
       <c r="V31" t="n">
-        <v>1640.866853724404</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W31" t="n">
         <v>1368.840449310696</v>
       </c>
       <c r="X31" t="n">
-        <v>1123.448694644108</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y31" t="n">
-        <v>896.0290239582166</v>
+        <v>896.0290239582171</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1314.408338702766</v>
+        <v>1310.040610727894</v>
       </c>
       <c r="C32" t="n">
-        <v>876.2658658861894</v>
+        <v>1310.040610727894</v>
       </c>
       <c r="D32" t="n">
-        <v>876.2658658861894</v>
+        <v>1310.040610727894</v>
       </c>
       <c r="E32" t="n">
         <v>876.2658658861894</v>
@@ -6697,10 +6697,10 @@
         <v>48.96638213099692</v>
       </c>
       <c r="I32" t="n">
-        <v>122.8353788882626</v>
+        <v>122.835378888263</v>
       </c>
       <c r="J32" t="n">
-        <v>286.358089178614</v>
+        <v>286.3580891786141</v>
       </c>
       <c r="K32" t="n">
         <v>531.4362430141197</v>
@@ -6730,22 +6730,22 @@
         <v>2448.319106549846</v>
       </c>
       <c r="T32" t="n">
-        <v>2236.857069169885</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="U32" t="n">
-        <v>2236.857069169885</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="V32" t="n">
-        <v>1874.240119103711</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="W32" t="n">
-        <v>1874.240119103711</v>
+        <v>2137.46919784893</v>
       </c>
       <c r="X32" t="n">
-        <v>1740.707909187674</v>
+        <v>1718.326734428241</v>
       </c>
       <c r="Y32" t="n">
-        <v>1740.707909187674</v>
+        <v>1310.040610727894</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>84.45847150237343</v>
       </c>
       <c r="J33" t="n">
-        <v>181.8514775085927</v>
+        <v>119.8578922240949</v>
       </c>
       <c r="K33" t="n">
-        <v>348.3116373029836</v>
+        <v>286.3180520184858</v>
       </c>
       <c r="L33" t="n">
-        <v>572.1378646061676</v>
+        <v>510.1442793216697</v>
       </c>
       <c r="M33" t="n">
-        <v>833.332514667877</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N33" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O33" t="n">
-        <v>1346.70637196244</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P33" t="n">
-        <v>1543.554090058107</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q33" t="n">
         <v>1613.147991278647</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>752.1546755081306</v>
+        <v>560.3360567891434</v>
       </c>
       <c r="C34" t="n">
-        <v>752.1546755081306</v>
+        <v>560.3360567891434</v>
       </c>
       <c r="D34" t="n">
-        <v>752.1546755081306</v>
+        <v>419.8782050877512</v>
       </c>
       <c r="E34" t="n">
-        <v>582.3966717588678</v>
+        <v>419.8782050877512</v>
       </c>
       <c r="F34" t="n">
-        <v>405.689617720624</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="G34" t="n">
-        <v>240.9801227296081</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="H34" t="n">
         <v>111.1088024083089</v>
@@ -6861,22 +6861,22 @@
         <v>110.0676242284526</v>
       </c>
       <c r="K34" t="n">
-        <v>210.475734554476</v>
+        <v>245.58759774283</v>
       </c>
       <c r="L34" t="n">
-        <v>542.2681845220128</v>
+        <v>374.0754096576803</v>
       </c>
       <c r="M34" t="n">
-        <v>1137.224434046558</v>
+        <v>969.0316591822257</v>
       </c>
       <c r="N34" t="n">
-        <v>1711.734389091366</v>
+        <v>1543.541614227034</v>
       </c>
       <c r="O34" t="n">
-        <v>2253.55898255416</v>
+        <v>2085.366207689827</v>
       </c>
       <c r="P34" t="n">
-        <v>2358.083982536743</v>
+        <v>2189.891207672411</v>
       </c>
       <c r="Q34" t="n">
         <v>2430.451674572189</v>
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1770.11160262316</v>
+        <v>572.9089583717314</v>
       </c>
       <c r="C35" t="n">
-        <v>1331.969129806583</v>
+        <v>572.9089583717314</v>
       </c>
       <c r="D35" t="n">
-        <v>910.6085565634939</v>
+        <v>572.9089583717314</v>
       </c>
       <c r="E35" t="n">
-        <v>476.8338117217892</v>
+        <v>572.9089583717314</v>
       </c>
       <c r="F35" t="n">
-        <v>48.96638213099691</v>
+        <v>572.9089583717314</v>
       </c>
       <c r="G35" t="n">
-        <v>48.96638213099691</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="H35" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I35" t="n">
         <v>122.8353788882622</v>
       </c>
       <c r="J35" t="n">
-        <v>286.3580891786132</v>
+        <v>286.3580891786133</v>
       </c>
       <c r="K35" t="n">
-        <v>531.436243014119</v>
+        <v>531.4362430141189</v>
       </c>
       <c r="L35" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398447</v>
       </c>
       <c r="M35" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N35" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290066</v>
       </c>
       <c r="O35" t="n">
         <v>1842.180380803855</v>
@@ -6973,16 +6973,16 @@
         <v>2189.254066043849</v>
       </c>
       <c r="V35" t="n">
-        <v>2189.254066043849</v>
+        <v>1826.637115977675</v>
       </c>
       <c r="W35" t="n">
-        <v>2189.254066043849</v>
+        <v>1826.637115977675</v>
       </c>
       <c r="X35" t="n">
-        <v>1770.11160262316</v>
+        <v>1407.494652556986</v>
       </c>
       <c r="Y35" t="n">
-        <v>1770.11160262316</v>
+        <v>999.2085288566392</v>
       </c>
     </row>
     <row r="36">
@@ -7007,19 +7007,19 @@
         <v>164.8773258579252</v>
       </c>
       <c r="G36" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804901</v>
       </c>
       <c r="H36" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I36" t="n">
-        <v>84.45847150237341</v>
+        <v>84.4584715023734</v>
       </c>
       <c r="J36" t="n">
-        <v>181.8514775085927</v>
+        <v>119.8578922240949</v>
       </c>
       <c r="K36" t="n">
-        <v>348.3116373029836</v>
+        <v>286.3180520184858</v>
       </c>
       <c r="L36" t="n">
         <v>510.1442793216697</v>
@@ -7083,37 +7083,37 @@
         <v>225.6734361692407</v>
       </c>
       <c r="F37" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="G37" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H37" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I37" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="J37" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K37" t="n">
-        <v>413.780372607162</v>
+        <v>357.5645709534004</v>
       </c>
       <c r="L37" t="n">
-        <v>542.2681845220123</v>
+        <v>486.0523828682507</v>
       </c>
       <c r="M37" t="n">
-        <v>1137.224434046558</v>
+        <v>621.5247652118831</v>
       </c>
       <c r="N37" t="n">
-        <v>1711.734389091366</v>
+        <v>1196.034720256691</v>
       </c>
       <c r="O37" t="n">
-        <v>2253.558982554159</v>
+        <v>1737.859313719485</v>
       </c>
       <c r="P37" t="n">
-        <v>2358.083982536742</v>
+        <v>2189.89120767241</v>
       </c>
       <c r="Q37" t="n">
         <v>2430.451674572188</v>
@@ -7122,19 +7122,19 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S37" t="n">
-        <v>2304.444758099758</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T37" t="n">
-        <v>2062.332917060791</v>
+        <v>2235.868004505405</v>
       </c>
       <c r="U37" t="n">
-        <v>1783.948013403887</v>
+        <v>1957.4831008485</v>
       </c>
       <c r="V37" t="n">
-        <v>1496.992505274317</v>
+        <v>1670.527592718931</v>
       </c>
       <c r="W37" t="n">
-        <v>1224.966100860609</v>
+        <v>1398.501188305222</v>
       </c>
       <c r="X37" t="n">
         <v>1153.109433638635</v>
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1201.403396988016</v>
+        <v>1784.660814205626</v>
       </c>
       <c r="C38" t="n">
-        <v>763.2609241714395</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="D38" t="n">
-        <v>448.3984362953971</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E38" t="n">
-        <v>448.3984362953971</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F38" t="n">
-        <v>448.3984362953971</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="G38" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H38" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I38" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882622</v>
       </c>
       <c r="J38" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786133</v>
       </c>
       <c r="K38" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141189</v>
       </c>
       <c r="L38" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398447</v>
       </c>
       <c r="M38" t="n">
-        <v>1173.781693844502</v>
+        <v>1173.781693844501</v>
       </c>
       <c r="N38" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290066</v>
       </c>
       <c r="O38" t="n">
         <v>1842.180380803855</v>
@@ -7201,25 +7201,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S38" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T38" t="n">
-        <v>2409.462380959787</v>
+        <v>2236.857069169884</v>
       </c>
       <c r="U38" t="n">
-        <v>2409.462380959787</v>
+        <v>2236.857069169884</v>
       </c>
       <c r="V38" t="n">
-        <v>2046.845430893613</v>
+        <v>2236.857069169884</v>
       </c>
       <c r="W38" t="n">
-        <v>2046.845430893613</v>
+        <v>2236.857069169884</v>
       </c>
       <c r="X38" t="n">
-        <v>1627.702967472924</v>
+        <v>2210.960384690534</v>
       </c>
       <c r="Y38" t="n">
-        <v>1627.702967472924</v>
+        <v>2210.960384690534</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>164.8773258579252</v>
       </c>
       <c r="G39" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804901</v>
       </c>
       <c r="H39" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I39" t="n">
-        <v>84.45847150237341</v>
+        <v>84.4584715023734</v>
       </c>
       <c r="J39" t="n">
         <v>181.8514775085927</v>
       </c>
       <c r="K39" t="n">
-        <v>286.3180520184858</v>
+        <v>348.3116373029835</v>
       </c>
       <c r="L39" t="n">
-        <v>510.1442793216697</v>
+        <v>572.1378646061675</v>
       </c>
       <c r="M39" t="n">
-        <v>771.3389293833792</v>
+        <v>833.332514667877</v>
       </c>
       <c r="N39" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O39" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P39" t="n">
         <v>1481.560504773609</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.3360567891425</v>
+        <v>704.210405239229</v>
       </c>
       <c r="C40" t="n">
-        <v>387.7743452723674</v>
+        <v>531.6486937224539</v>
       </c>
       <c r="D40" t="n">
-        <v>221.8963524738901</v>
+        <v>365.7707009239766</v>
       </c>
       <c r="E40" t="n">
-        <v>52.13834872462738</v>
+        <v>196.0126971747139</v>
       </c>
       <c r="F40" t="n">
-        <v>52.13834872462738</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="G40" t="n">
-        <v>52.13834872462738</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="H40" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="I40" t="n">
-        <v>48.96638213099691</v>
+        <v>48.9663821309969</v>
       </c>
       <c r="J40" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K40" t="n">
-        <v>571.8138742903014</v>
+        <v>210.475734554476</v>
       </c>
       <c r="L40" t="n">
-        <v>700.3016862051518</v>
+        <v>654.245157732583</v>
       </c>
       <c r="M40" t="n">
-        <v>1295.257935729697</v>
+        <v>789.7175400762154</v>
       </c>
       <c r="N40" t="n">
-        <v>1615.703969482473</v>
+        <v>1364.227495121024</v>
       </c>
       <c r="O40" t="n">
-        <v>1737.859313719485</v>
+        <v>1906.052088583817</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536742</v>
       </c>
       <c r="Q40" t="n">
         <v>2430.451674572188</v>
@@ -7359,25 +7359,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S40" t="n">
-        <v>2304.444758099758</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T40" t="n">
-        <v>2062.332917060791</v>
+        <v>2206.207265510878</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.948013403887</v>
+        <v>1927.822361853973</v>
       </c>
       <c r="V40" t="n">
-        <v>1496.992505274317</v>
+        <v>1640.866853724404</v>
       </c>
       <c r="W40" t="n">
-        <v>1224.966100860609</v>
+        <v>1368.840449310695</v>
       </c>
       <c r="X40" t="n">
-        <v>979.5743461940215</v>
+        <v>1123.448694644108</v>
       </c>
       <c r="Y40" t="n">
-        <v>752.1546755081297</v>
+        <v>896.0290239582162</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1346.51834138905</v>
+        <v>1216.035064839843</v>
       </c>
       <c r="C41" t="n">
-        <v>1346.51834138905</v>
+        <v>777.8925920232664</v>
       </c>
       <c r="D41" t="n">
-        <v>910.6085565634939</v>
+        <v>341.9828071977109</v>
       </c>
       <c r="E41" t="n">
-        <v>476.8338117217892</v>
+        <v>341.9828071977109</v>
       </c>
       <c r="F41" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G41" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H41" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I41" t="n">
-        <v>122.8353788882626</v>
+        <v>122.835378888263</v>
       </c>
       <c r="J41" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786141</v>
       </c>
       <c r="K41" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141197</v>
       </c>
       <c r="L41" t="n">
-        <v>835.4773641398446</v>
+        <v>835.4773641398455</v>
       </c>
       <c r="M41" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N41" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O41" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P41" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q41" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R41" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S41" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T41" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="U41" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="V41" t="n">
-        <v>2409.462380959787</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="W41" t="n">
-        <v>2191.960375294646</v>
+        <v>2043.463651960879</v>
       </c>
       <c r="X41" t="n">
-        <v>1772.817911873957</v>
+        <v>1624.32118854019</v>
       </c>
       <c r="Y41" t="n">
-        <v>1772.817911873957</v>
+        <v>1216.035064839843</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>80.54401965804902</v>
       </c>
       <c r="H42" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I42" t="n">
         <v>84.45847150237343</v>
       </c>
       <c r="J42" t="n">
-        <v>119.8578922240948</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K42" t="n">
-        <v>286.3180520184857</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L42" t="n">
-        <v>510.1442793216697</v>
+        <v>572.1378646061676</v>
       </c>
       <c r="M42" t="n">
-        <v>771.3389293833792</v>
+        <v>833.332514667877</v>
       </c>
       <c r="N42" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O42" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P42" t="n">
         <v>1481.560504773609</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.4478978281097</v>
+        <v>752.1546755081306</v>
       </c>
       <c r="C43" t="n">
-        <v>629.8861863113347</v>
+        <v>579.5929639913555</v>
       </c>
       <c r="D43" t="n">
-        <v>629.8861863113347</v>
+        <v>560.1409349095195</v>
       </c>
       <c r="E43" t="n">
-        <v>460.1281825620719</v>
+        <v>390.3829311602567</v>
       </c>
       <c r="F43" t="n">
-        <v>283.4211285238281</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="G43" t="n">
-        <v>243.1711510495074</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H43" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I43" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J43" t="n">
         <v>110.0676242284526</v>
       </c>
       <c r="K43" t="n">
-        <v>485.2341891256116</v>
+        <v>413.7803726071625</v>
       </c>
       <c r="L43" t="n">
-        <v>1031.931882808423</v>
+        <v>542.2681845220128</v>
       </c>
       <c r="M43" t="n">
-        <v>1167.404265152055</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N43" t="n">
-        <v>1615.703969482473</v>
+        <v>1711.734389091366</v>
       </c>
       <c r="O43" t="n">
-        <v>1737.859313719485</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R43" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S43" t="n">
-        <v>2304.444758099758</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T43" t="n">
-        <v>2304.444758099758</v>
+        <v>2062.332917060792</v>
       </c>
       <c r="U43" t="n">
-        <v>2026.059854442854</v>
+        <v>1783.948013403888</v>
       </c>
       <c r="V43" t="n">
-        <v>1739.104346313285</v>
+        <v>1496.992505274318</v>
       </c>
       <c r="W43" t="n">
-        <v>1467.077941899576</v>
+        <v>1224.96610086061</v>
       </c>
       <c r="X43" t="n">
-        <v>1221.686187232989</v>
+        <v>979.5743461940224</v>
       </c>
       <c r="Y43" t="n">
-        <v>994.2665165470969</v>
+        <v>752.1546755081306</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1187.649050479206</v>
+        <v>2184.092868370027</v>
       </c>
       <c r="C44" t="n">
-        <v>1187.649050479206</v>
+        <v>1745.95039555345</v>
       </c>
       <c r="D44" t="n">
-        <v>751.7392656536506</v>
+        <v>1310.040610727894</v>
       </c>
       <c r="E44" t="n">
-        <v>317.9645208119457</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="F44" t="n">
-        <v>317.9645208119457</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="G44" t="n">
-        <v>317.9645208119457</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H44" t="n">
         <v>48.96638213099692</v>
@@ -7678,22 +7678,22 @@
         <v>2409.462380959787</v>
       </c>
       <c r="T44" t="n">
-        <v>2198.000343579826</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U44" t="n">
-        <v>2198.000343579826</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V44" t="n">
-        <v>2033.091084384803</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="W44" t="n">
-        <v>2033.091084384803</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="X44" t="n">
-        <v>1613.948620964114</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="Y44" t="n">
-        <v>1613.948620964114</v>
+        <v>2409.462380959787</v>
       </c>
     </row>
     <row r="45">
@@ -7727,13 +7727,13 @@
         <v>84.45847150237343</v>
       </c>
       <c r="J45" t="n">
-        <v>181.8514775085927</v>
+        <v>119.8578922240948</v>
       </c>
       <c r="K45" t="n">
-        <v>348.3116373029836</v>
+        <v>286.3180520184857</v>
       </c>
       <c r="L45" t="n">
-        <v>572.1378646061676</v>
+        <v>510.1442793216697</v>
       </c>
       <c r="M45" t="n">
         <v>771.3389293833792</v>
@@ -7806,25 +7806,25 @@
         <v>48.96638213099692</v>
       </c>
       <c r="J46" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K46" t="n">
-        <v>571.8138742903014</v>
+        <v>485.2341891256116</v>
       </c>
       <c r="L46" t="n">
-        <v>928.3111860258963</v>
+        <v>1031.931882808423</v>
       </c>
       <c r="M46" t="n">
-        <v>1063.783568369529</v>
+        <v>1626.888132332968</v>
       </c>
       <c r="N46" t="n">
-        <v>1196.034720256692</v>
+        <v>2131.403638317148</v>
       </c>
       <c r="O46" t="n">
-        <v>1737.859313719486</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.891207672411</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q46" t="n">
         <v>2430.451674572189</v>
@@ -7833,22 +7833,22 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S46" t="n">
-        <v>2304.444758099759</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T46" t="n">
-        <v>2062.332917060792</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.948013403888</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V46" t="n">
-        <v>1496.992505274318</v>
+        <v>1794.73772483437</v>
       </c>
       <c r="W46" t="n">
-        <v>1224.96610086061</v>
+        <v>1522.711320420662</v>
       </c>
       <c r="X46" t="n">
-        <v>1049.899895068182</v>
+        <v>1277.319565754074</v>
       </c>
       <c r="Y46" t="n">
         <v>1049.899895068182</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>21.75440028723776</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>11.14042390876192</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>36.94091896479665</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8619,19 +8619,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>32.05661388637266</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>32.27675768710763</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3.565214926835978</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>31.52930186393523</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8856,13 +8856,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>141.468043217344</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M16" t="n">
         <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9327,13 +9327,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>181.0222629918453</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>156.7304232042866</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>45.75904403824984</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>35.46652847308482</v>
       </c>
       <c r="L25" t="n">
-        <v>190.095840268296</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10035,22 +10035,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>35.46652847308485</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>319.2409620638939</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>85.41219456961471</v>
+        <v>172.8664220086958</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10509,10 +10509,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>35.46652847308485</v>
       </c>
       <c r="L34" t="n">
-        <v>205.3582202552388</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>117.9039928161577</v>
+        <v>148.5745822211358</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10761,10 +10761,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>318.4662740032896</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>190.0958402682954</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>205.3582202552388</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>319.2409620638932</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>230.3126260815601</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>376.024600097996</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>36.20628293521102</v>
+        <v>257.9205999081741</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.21767547602079</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>8.898184499096601</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>94.62205060359406</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>173.3898864373011</v>
       </c>
     </row>
     <row r="15">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>166.0458048560689</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>113.2693808714469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>264.2724695281406</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>253.3130708058379</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.364664575150783</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>31.60508971965388</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>258.6061928748597</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>265.3352856806306</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.2554364750584</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>114.8692533779066</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>317.4603751113238</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H23" t="n">
         <v>266.3081572941393</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>38.72773905739427</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>52.40961629274923</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>62.85073909637525</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T25" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H26" t="n">
         <v>266.3081572941393</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T26" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4743901009363</v>
+        <v>7.003296853411825</v>
       </c>
       <c r="V26" t="n">
-        <v>106.9753580728662</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>58.3807491468438</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>29.36413160458065</v>
       </c>
       <c r="G28" t="n">
         <v>163.0624000411058</v>
@@ -24621,7 +24621,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>145.874156068134</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>395.7584574371197</v>
       </c>
       <c r="G29" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T29" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>29.36413160458065</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H31" t="n">
-        <v>45.53005650665843</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>38.46815833415827</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U32" t="n">
         <v>256.4743901009363</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>93.06549042917032</v>
       </c>
       <c r="X32" t="n">
-        <v>282.7541509696057</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>25.16593968611426</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H34" t="n">
-        <v>2.169118036700354</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>14.40371946664158</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4377336227562</v>
+        <v>143.0427404385684</v>
       </c>
       <c r="H35" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>29.3641316045819</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>171.7997365701672</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>119.836823980018</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H38" t="n">
         <v>266.3081572941393</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T38" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4743901009363</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>389.313321151926</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>29.36413160458153</v>
       </c>
       <c r="G40" t="n">
         <v>163.0624000411058</v>
       </c>
       <c r="H40" t="n">
-        <v>127.6014782270924</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I40" t="n">
         <v>61.52099607453886</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>133.5024944788375</v>
       </c>
       <c r="G41" t="n">
         <v>395.4377336227562</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T41" t="n">
         <v>209.3474170061614</v>
@@ -25690,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>185.4799144345883</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>144.9617040794749</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>123.2149223415283</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>198.9207573161961</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U44" t="n">
         <v>256.4743901009363</v>
       </c>
       <c r="V44" t="n">
-        <v>195.7306139624394</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>152.3321623988656</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>69.62229338541835</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>340333.3796352368</v>
+        <v>340333.3796352369</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>340333.3796352368</v>
+        <v>340333.3796352369</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>340333.3796352369</v>
+        <v>340333.3796352368</v>
       </c>
     </row>
     <row r="14">
@@ -26319,7 +26319,7 @@
         <v>392538.4746673437</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178062</v>
       </c>
       <c r="E2" t="n">
         <v>235946.3569512259</v>
@@ -26328,31 +26328,31 @@
         <v>235946.3569512259</v>
       </c>
       <c r="G2" t="n">
-        <v>235946.3569512258</v>
+        <v>235946.356951226</v>
       </c>
       <c r="H2" t="n">
         <v>235946.3569512259</v>
       </c>
       <c r="I2" t="n">
-        <v>242775.0810731975</v>
+        <v>242775.0810731976</v>
       </c>
       <c r="J2" t="n">
         <v>242775.0810731975</v>
       </c>
       <c r="K2" t="n">
-        <v>242775.0810731975</v>
+        <v>242775.0810731976</v>
       </c>
       <c r="L2" t="n">
         <v>242775.0810731975</v>
       </c>
       <c r="M2" t="n">
+        <v>242775.0810731974</v>
+      </c>
+      <c r="N2" t="n">
+        <v>242775.0810731974</v>
+      </c>
+      <c r="O2" t="n">
         <v>242775.0810731975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>242775.0810731975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>242775.0810731976</v>
       </c>
       <c r="P2" t="n">
         <v>242775.0810731975</v>
@@ -26374,7 +26374,7 @@
         <v>40883.89454475579</v>
       </c>
       <c r="E3" t="n">
-        <v>512485.5095559817</v>
+        <v>512485.5095559816</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18943.98047935661</v>
+        <v>18943.98047935666</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10456.45543630175</v>
+        <v>10456.45543630177</v>
       </c>
       <c r="M3" t="n">
-        <v>136754.9043831154</v>
+        <v>136754.9043831153</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>294349.6920770006</v>
@@ -26429,13 +26429,13 @@
         <v>16511.4186966076</v>
       </c>
       <c r="F4" t="n">
-        <v>16511.4186966076</v>
+        <v>16511.41869660759</v>
       </c>
       <c r="G4" t="n">
         <v>16511.4186966076</v>
       </c>
       <c r="H4" t="n">
-        <v>16511.4186966076</v>
+        <v>16511.41869660761</v>
       </c>
       <c r="I4" t="n">
         <v>17114.49575431203</v>
@@ -26444,10 +26444,10 @@
         <v>17114.49575431203</v>
       </c>
       <c r="K4" t="n">
-        <v>17114.49575431202</v>
+        <v>17114.49575431203</v>
       </c>
       <c r="L4" t="n">
-        <v>17114.49575431204</v>
+        <v>17114.49575431203</v>
       </c>
       <c r="M4" t="n">
         <v>17114.49575431203</v>
@@ -26481,7 +26481,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60180.15835551085</v>
+        <v>60148.25163800929</v>
       </c>
       <c r="C6" t="n">
-        <v>60180.15835551091</v>
+        <v>60148.25163800929</v>
       </c>
       <c r="D6" t="n">
-        <v>30023.33348583979</v>
+        <v>30023.33348583968</v>
       </c>
       <c r="E6" t="n">
-        <v>-339101.6525110012</v>
+        <v>-339655.532954223</v>
       </c>
       <c r="F6" t="n">
-        <v>173383.8570449805</v>
+        <v>172829.9766017586</v>
       </c>
       <c r="G6" t="n">
-        <v>173383.8570449804</v>
+        <v>172829.9766017586</v>
       </c>
       <c r="H6" t="n">
-        <v>173383.8570449805</v>
+        <v>172829.9766017585</v>
       </c>
       <c r="I6" t="n">
-        <v>158948.8352255587</v>
+        <v>158417.7171960767</v>
       </c>
       <c r="J6" t="n">
-        <v>177892.8157049154</v>
+        <v>177361.6976754333</v>
       </c>
       <c r="K6" t="n">
-        <v>177892.8157049153</v>
+        <v>177361.6976754334</v>
       </c>
       <c r="L6" t="n">
-        <v>167436.3602686136</v>
+        <v>166905.2422391316</v>
       </c>
       <c r="M6" t="n">
-        <v>41137.91132179997</v>
+        <v>40606.79329231791</v>
       </c>
       <c r="N6" t="n">
-        <v>177892.8157049153</v>
+        <v>177361.6976754332</v>
       </c>
       <c r="O6" t="n">
-        <v>177892.8157049154</v>
+        <v>177361.6976754333</v>
       </c>
       <c r="P6" t="n">
-        <v>177892.8157049154</v>
+        <v>177361.6976754333</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932211</v>
@@ -26758,10 +26758,10 @@
         <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
+        <v>484.0972107528675</v>
+      </c>
+      <c r="J3" t="n">
         <v>484.0972107528674</v>
-      </c>
-      <c r="J3" t="n">
-        <v>484.0972107528675</v>
       </c>
       <c r="K3" t="n">
         <v>484.0972107528674</v>
@@ -26776,7 +26776,7 @@
         <v>484.0972107528674</v>
       </c>
       <c r="O3" t="n">
-        <v>484.0972107528675</v>
+        <v>484.0972107528674</v>
       </c>
       <c r="P3" t="n">
         <v>484.0972107528675</v>
@@ -26816,19 +26816,19 @@
         <v>612.0797766374615</v>
       </c>
       <c r="K4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374615</v>
       </c>
       <c r="L4" t="n">
         <v>612.0797766374615</v>
       </c>
       <c r="M4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374612</v>
       </c>
       <c r="N4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374612</v>
       </c>
       <c r="O4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374615</v>
       </c>
       <c r="P4" t="n">
         <v>612.0797766374615</v>
@@ -26968,7 +26968,7 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9488260326495</v>
+        <v>433.9488260326494</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.39528265964628</v>
+        <v>17.39528265964634</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752744</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144065</v>
+        <v>548.7668913144064</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27943,10 +27943,10 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
         <v>40.6378963153706</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>20.19730100379491</v>
+        <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
-        <v>92.20263933340772</v>
+        <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5685466570983</v>
+        <v>133.2535436095709</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>116.9285067192467</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28019,16 +28019,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>157.097685947878</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.5612962059744</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>96.66302601383403</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
         <v>85.99716511640959</v>
@@ -28070,16 +28070,16 @@
         <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>207.3031764290495</v>
       </c>
     </row>
     <row r="11">
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -31773,7 +31773,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
         <v>316.116681354841</v>
@@ -31782,19 +31782,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T11" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
@@ -31873,7 +31873,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K13" t="n">
         <v>97.77787936116989</v>
@@ -31931,16 +31931,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
         <v>37.84111043195198</v>
@@ -31952,7 +31952,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062837</v>
@@ -32010,28 +32010,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917241</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,13 +32314,13 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108054</v>
@@ -32560,7 +32560,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
@@ -32703,19 +32703,19 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H23" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I23" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K23" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L23" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M23" t="n">
         <v>341.7215451562188</v>
@@ -32724,10 +32724,10 @@
         <v>347.2509570157227</v>
       </c>
       <c r="O23" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q23" t="n">
         <v>210.1590056992511</v>
@@ -32739,10 +32739,10 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T23" t="n">
-        <v>8.519137849530358</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>10.05643451016806</v>
       </c>
       <c r="I24" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365585</v>
       </c>
       <c r="K24" t="n">
-        <v>105.5217924342355</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L24" t="n">
         <v>226.0870982860444</v>
@@ -32800,10 +32800,10 @@
         <v>263.8329798603127</v>
       </c>
       <c r="N24" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O24" t="n">
-        <v>247.7435980350075</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P24" t="n">
         <v>198.8360788845127</v>
@@ -32812,7 +32812,7 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R24" t="n">
-        <v>64.64981240959995</v>
+        <v>2.030029293945518</v>
       </c>
       <c r="S24" t="n">
         <v>19.34105365602257</v>
@@ -32821,7 +32821,7 @@
         <v>4.197031478130991</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248429</v>
       </c>
       <c r="H25" t="n">
-        <v>7.761427411742699</v>
+        <v>7.7614274117427</v>
       </c>
       <c r="I25" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J25" t="n">
         <v>61.71842636106638</v>
@@ -32888,10 +32888,10 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R25" t="n">
-        <v>39.25155417022428</v>
+        <v>39.25155417022429</v>
       </c>
       <c r="S25" t="n">
         <v>15.21335004939748</v>
@@ -32900,7 +32900,7 @@
         <v>3.7299293287516</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044603</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,19 +32940,19 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H26" t="n">
-        <v>19.93069571707659</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I26" t="n">
-        <v>75.02776971879368</v>
+        <v>75.02776971879366</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K26" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613392</v>
       </c>
       <c r="M26" t="n">
         <v>341.7215451562188</v>
@@ -32961,10 +32961,10 @@
         <v>347.2509570157227</v>
       </c>
       <c r="O26" t="n">
-        <v>327.8992318321094</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P26" t="n">
-        <v>279.8544081518625</v>
+        <v>279.8544081518624</v>
       </c>
       <c r="Q26" t="n">
         <v>210.1590056992511</v>
@@ -32976,10 +32976,10 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T26" t="n">
-        <v>8.51913784953036</v>
+        <v>8.519137849530358</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1556895552170025</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>10.05643451016806</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462274</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365585</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K27" t="n">
-        <v>105.5217924342354</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L27" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603127</v>
+        <v>201.2131967446583</v>
       </c>
       <c r="N27" t="n">
-        <v>270.815853777682</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O27" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350075</v>
       </c>
       <c r="P27" t="n">
         <v>198.8360788845127</v>
@@ -33058,7 +33058,7 @@
         <v>4.197031478130991</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0685043222763492</v>
+        <v>0.06850432227634919</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8729621833248429</v>
+        <v>0.8729621833248428</v>
       </c>
       <c r="H28" t="n">
-        <v>7.7614274117427</v>
+        <v>7.761427411742699</v>
       </c>
       <c r="I28" t="n">
-        <v>26.25235365853256</v>
+        <v>26.25235365853255</v>
       </c>
       <c r="J28" t="n">
         <v>61.71842636106638</v>
@@ -33125,10 +33125,10 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.09867882368299</v>
+        <v>73.09867882368297</v>
       </c>
       <c r="R28" t="n">
-        <v>39.25155417022429</v>
+        <v>39.25155417022428</v>
       </c>
       <c r="S28" t="n">
         <v>15.21335004939748</v>
@@ -33137,7 +33137,7 @@
         <v>3.7299293287516</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04761611909044603</v>
+        <v>0.04761611909044602</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33262,7 +33262,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J30" t="n">
-        <v>35.7569906280015</v>
+        <v>35.75699062800149</v>
       </c>
       <c r="K30" t="n">
         <v>168.1415755498898</v>
@@ -33499,7 +33499,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J33" t="n">
-        <v>98.37677374365583</v>
+        <v>35.75699062800149</v>
       </c>
       <c r="K33" t="n">
         <v>168.1415755498898</v>
@@ -33520,7 +33520,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.29686991973676</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R33" t="n">
         <v>64.64981240959995</v>
@@ -33736,13 +33736,13 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365583</v>
+        <v>35.75699062800152</v>
       </c>
       <c r="K36" t="n">
         <v>168.1415755498898</v>
       </c>
       <c r="L36" t="n">
-        <v>163.46731517039</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M36" t="n">
         <v>263.8329798603127</v>
@@ -33976,7 +33976,7 @@
         <v>98.37677374365583</v>
       </c>
       <c r="K39" t="n">
-        <v>105.5217924342355</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L39" t="n">
         <v>226.0870982860444</v>
@@ -33991,7 +33991,7 @@
         <v>247.7435980350075</v>
       </c>
       <c r="P39" t="n">
-        <v>198.8360788845127</v>
+        <v>136.2162957688583</v>
       </c>
       <c r="Q39" t="n">
         <v>132.9166530353911</v>
@@ -34125,19 +34125,19 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H41" t="n">
-        <v>19.93069571707659</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I41" t="n">
-        <v>75.02776971879368</v>
+        <v>75.02776971879366</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K41" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L41" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613392</v>
       </c>
       <c r="M41" t="n">
         <v>341.7215451562188</v>
@@ -34146,10 +34146,10 @@
         <v>347.2509570157227</v>
       </c>
       <c r="O41" t="n">
-        <v>327.8992318321094</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P41" t="n">
-        <v>279.8544081518625</v>
+        <v>279.8544081518624</v>
       </c>
       <c r="Q41" t="n">
         <v>210.1590056992511</v>
@@ -34161,10 +34161,10 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T41" t="n">
-        <v>8.51913784953036</v>
+        <v>8.519137849530358</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1556895552170025</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,10 +34207,10 @@
         <v>10.05643451016806</v>
       </c>
       <c r="I42" t="n">
-        <v>35.85059532462274</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J42" t="n">
-        <v>35.7569906280014</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K42" t="n">
         <v>168.1415755498898</v>
@@ -34222,13 +34222,13 @@
         <v>263.8329798603127</v>
       </c>
       <c r="N42" t="n">
-        <v>270.815853777682</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O42" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350075</v>
       </c>
       <c r="P42" t="n">
-        <v>198.8360788845127</v>
+        <v>136.2162957688583</v>
       </c>
       <c r="Q42" t="n">
         <v>132.9166530353911</v>
@@ -34243,7 +34243,7 @@
         <v>4.197031478130991</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0685043222763492</v>
+        <v>0.06850432227634919</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8729621833248429</v>
+        <v>0.8729621833248428</v>
       </c>
       <c r="H43" t="n">
-        <v>7.7614274117427</v>
+        <v>7.761427411742699</v>
       </c>
       <c r="I43" t="n">
-        <v>26.25235365853256</v>
+        <v>26.25235365853255</v>
       </c>
       <c r="J43" t="n">
         <v>61.71842636106638</v>
@@ -34310,10 +34310,10 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.09867882368299</v>
+        <v>73.09867882368297</v>
       </c>
       <c r="R43" t="n">
-        <v>39.25155417022429</v>
+        <v>39.25155417022428</v>
       </c>
       <c r="S43" t="n">
         <v>15.21335004939748</v>
@@ -34322,7 +34322,7 @@
         <v>3.7299293287516</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04761611909044603</v>
+        <v>0.04761611909044602</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,7 +34447,7 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365585</v>
+        <v>35.7569906280014</v>
       </c>
       <c r="K45" t="n">
         <v>168.1415755498898</v>
@@ -34456,7 +34456,7 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M45" t="n">
-        <v>201.2131967446583</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N45" t="n">
         <v>270.815853777682</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>28.75252608797635</v>
+        <v>2.425583501655538</v>
       </c>
       <c r="J9" t="n">
-        <v>28.41038681069788</v>
+        <v>6.655986523460121</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -35269,13 +35269,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408649</v>
+        <v>24.59329709284839</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.99288945632901</v>
+        <v>8.992889456329024</v>
       </c>
       <c r="R9" t="n">
-        <v>4.37408408273069</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35339,19 +35339,19 @@
         <v>8.781052968829314</v>
       </c>
       <c r="M10" t="n">
+        <v>9.258389161154682</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9.038245360419708</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8.348282472750284</v>
+      </c>
+      <c r="P10" t="n">
+        <v>38.67269972973595</v>
+      </c>
+      <c r="Q10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N10" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="O10" t="n">
-        <v>11.91349739958625</v>
-      </c>
-      <c r="P10" t="n">
-        <v>7.143397865800722</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4.945718411146316</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,19 +35415,19 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35488,13 +35488,13 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35506,7 +35506,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35576,13 +35576,13 @@
         <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>296.1475206512691</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35591,7 +35591,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816031</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35670,7 +35670,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917241</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>266.5900650540085</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M16" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35962,13 +35962,13 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -36047,22 +36047,22 @@
         <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>309.8090425917337</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>227.2024143463627</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027014</v>
@@ -36123,22 +36123,22 @@
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916794</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
@@ -36284,19 +36284,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>164.7144797430597</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
         <v>240.36368292423</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>74.61514823966226</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387383</v>
       </c>
       <c r="K23" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L23" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M23" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N23" t="n">
         <v>347.2509570157226</v>
@@ -36375,10 +36375,10 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R23" t="n">
         <v>122.2479252862504</v>
@@ -36439,7 +36439,7 @@
         <v>98.37677374365583</v>
       </c>
       <c r="K24" t="n">
-        <v>105.5217924342355</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L24" t="n">
         <v>226.0870982860444</v>
@@ -36460,7 +36460,7 @@
         <v>132.9166530353912</v>
       </c>
       <c r="R24" t="n">
-        <v>64.64981240959992</v>
+        <v>2.030029293945518</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K25" t="n">
-        <v>378.9561261587465</v>
+        <v>136.8888621357347</v>
       </c>
       <c r="L25" t="n">
-        <v>319.8815088691549</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M25" t="n">
         <v>600.9659086106519</v>
       </c>
       <c r="N25" t="n">
-        <v>133.5870221082462</v>
+        <v>580.3130859038469</v>
       </c>
       <c r="O25" t="n">
-        <v>123.3892366030423</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P25" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
         <v>242.9903706058367</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.61514823966228</v>
+        <v>74.61514823966226</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387383</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K26" t="n">
-        <v>247.5536907429349</v>
+        <v>247.5536907429351</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613395</v>
       </c>
       <c r="M26" t="n">
         <v>341.7215451562188</v>
@@ -36615,7 +36615,7 @@
         <v>279.8544081518626</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R26" t="n">
         <v>122.2479252862504</v>
@@ -36676,13 +36676,13 @@
         <v>98.37677374365583</v>
       </c>
       <c r="K27" t="n">
-        <v>105.5217924342354</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L27" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603127</v>
+        <v>201.2131967446583</v>
       </c>
       <c r="N27" t="n">
         <v>270.8158537776819</v>
@@ -36755,22 +36755,22 @@
         <v>61.71842636106638</v>
       </c>
       <c r="K28" t="n">
-        <v>378.9561261587464</v>
+        <v>136.8888621357347</v>
       </c>
       <c r="L28" t="n">
-        <v>552.2198926089003</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M28" t="n">
-        <v>136.8407902460933</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N28" t="n">
-        <v>133.5870221082462</v>
+        <v>580.3130859038469</v>
       </c>
       <c r="O28" t="n">
-        <v>442.6301986669362</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P28" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
         <v>242.9903706058367</v>
@@ -36831,16 +36831,16 @@
         <v>74.61514823966226</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K29" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L29" t="n">
         <v>307.1122435613393</v>
       </c>
       <c r="M29" t="n">
-        <v>341.7215451562187</v>
+        <v>341.7215451562188</v>
       </c>
       <c r="N29" t="n">
         <v>347.2509570157226</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J30" t="n">
-        <v>35.7569906280015</v>
+        <v>35.75699062800149</v>
       </c>
       <c r="K30" t="n">
         <v>168.1415755498898</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K31" t="n">
-        <v>186.8345282322646</v>
+        <v>274.2887556713457</v>
       </c>
       <c r="L31" t="n">
         <v>552.2198926089004</v>
@@ -37068,10 +37068,10 @@
         <v>74.61514823966226</v>
       </c>
       <c r="J32" t="n">
-        <v>165.1744548387387</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K32" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L32" t="n">
         <v>307.1122435613393</v>
@@ -37147,7 +37147,7 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J33" t="n">
-        <v>98.37677374365583</v>
+        <v>35.75699062800149</v>
       </c>
       <c r="K33" t="n">
         <v>168.1415755498898</v>
@@ -37168,7 +37168,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.29686991973676</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R33" t="n">
         <v>64.64981240959992</v>
@@ -37229,16 +37229,16 @@
         <v>61.71842636106638</v>
       </c>
       <c r="K34" t="n">
-        <v>101.4223336626499</v>
+        <v>136.8888621357347</v>
       </c>
       <c r="L34" t="n">
-        <v>335.1438888560978</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M34" t="n">
         <v>600.9659086106519</v>
       </c>
       <c r="N34" t="n">
-        <v>580.3130859038467</v>
+        <v>580.3130859038469</v>
       </c>
       <c r="O34" t="n">
         <v>547.2975691543368</v>
@@ -37247,7 +37247,7 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.0986788236828</v>
+        <v>242.9903706058367</v>
       </c>
       <c r="R34" t="n">
         <v>18.04791108854245</v>
@@ -37305,16 +37305,16 @@
         <v>74.61514823966226</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K35" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L35" t="n">
-        <v>307.1122435613395</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N35" t="n">
         <v>347.2509570157226</v>
@@ -37384,13 +37384,13 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365585</v>
+        <v>35.75699062800152</v>
       </c>
       <c r="K36" t="n">
         <v>168.1415755498898</v>
       </c>
       <c r="L36" t="n">
-        <v>163.46731517039</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M36" t="n">
         <v>263.8329798603127</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K37" t="n">
-        <v>219.3263264788076</v>
+        <v>249.9969158837857</v>
       </c>
       <c r="L37" t="n">
         <v>129.7856686008589</v>
       </c>
       <c r="M37" t="n">
-        <v>600.9659086106519</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N37" t="n">
-        <v>580.3130859038467</v>
+        <v>580.3130859038469</v>
       </c>
       <c r="O37" t="n">
         <v>547.2975691543368</v>
       </c>
       <c r="P37" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.0986788236828</v>
+        <v>242.9903706058367</v>
       </c>
       <c r="R37" t="n">
         <v>18.04791108854245</v>
@@ -37542,7 +37542,7 @@
         <v>74.61514823966226</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K38" t="n">
         <v>247.5536907429349</v>
@@ -37551,7 +37551,7 @@
         <v>307.1122435613393</v>
       </c>
       <c r="M38" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N38" t="n">
         <v>347.2509570157226</v>
@@ -37621,16 +37621,16 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365585</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K39" t="n">
-        <v>105.5217924342355</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L39" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M39" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N39" t="n">
         <v>270.8158537776819</v>
@@ -37639,7 +37639,7 @@
         <v>247.7435980350076</v>
       </c>
       <c r="P39" t="n">
-        <v>198.8360788845127</v>
+        <v>136.2162957688583</v>
       </c>
       <c r="Q39" t="n">
         <v>132.9166530353912</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K40" t="n">
-        <v>378.9561261587465</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L40" t="n">
-        <v>129.7856686008589</v>
+        <v>448.2519426041486</v>
       </c>
       <c r="M40" t="n">
-        <v>600.965908610652</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N40" t="n">
-        <v>323.6828623765416</v>
+        <v>580.3130859038469</v>
       </c>
       <c r="O40" t="n">
-        <v>123.3892366030423</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P40" t="n">
         <v>456.5978726797223</v>
       </c>
       <c r="Q40" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R40" t="n">
         <v>18.04791108854245</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>74.61514823966228</v>
+        <v>74.61514823966226</v>
       </c>
       <c r="J41" t="n">
         <v>165.1744548387384</v>
@@ -37785,7 +37785,7 @@
         <v>247.5536907429349</v>
       </c>
       <c r="L41" t="n">
-        <v>307.1122435613388</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M41" t="n">
         <v>341.7215451562188</v>
@@ -37800,7 +37800,7 @@
         <v>279.8544081518626</v>
       </c>
       <c r="Q41" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R41" t="n">
         <v>122.2479252862504</v>
@@ -37858,7 +37858,7 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J42" t="n">
-        <v>35.7569906280014</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K42" t="n">
         <v>168.1415755498898</v>
@@ -37876,7 +37876,7 @@
         <v>247.7435980350076</v>
       </c>
       <c r="P42" t="n">
-        <v>198.8360788845127</v>
+        <v>136.2162957688583</v>
       </c>
       <c r="Q42" t="n">
         <v>132.9166530353912</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>61.71842636106639</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K43" t="n">
-        <v>378.9561261587464</v>
+        <v>306.7805539178887</v>
       </c>
       <c r="L43" t="n">
-        <v>552.2198926089003</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M43" t="n">
-        <v>136.8407902460933</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N43" t="n">
-        <v>452.8279841721394</v>
+        <v>580.3130859038467</v>
       </c>
       <c r="O43" t="n">
-        <v>123.3892366030425</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P43" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q43" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R43" t="n">
         <v>18.04791108854245</v>
@@ -38095,16 +38095,16 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365583</v>
+        <v>35.7569906280014</v>
       </c>
       <c r="K45" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L45" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M45" t="n">
-        <v>201.2131967446583</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N45" t="n">
         <v>270.8158537776819</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K46" t="n">
-        <v>378.9561261587465</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L46" t="n">
-        <v>360.098294682419</v>
+        <v>552.2198926089003</v>
       </c>
       <c r="M46" t="n">
-        <v>136.8407902460933</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N46" t="n">
-        <v>133.5870221082462</v>
+        <v>509.6116222062421</v>
       </c>
       <c r="O46" t="n">
-        <v>547.2975691543368</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P46" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q46" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R46" t="n">
         <v>18.04791108854245</v>
